--- a/ConvertedEqual/Washington_Converted.xlsx
+++ b/ConvertedEqual/Washington_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="281">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -822,6 +822,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF221"/>
+  <dimension ref="A1:AF233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,6 +1440,9 @@
       <c r="H3" s="2">
         <v>43915</v>
       </c>
+      <c r="I3" s="2">
+        <v>43915</v>
+      </c>
       <c r="J3" s="2">
         <v>43915</v>
       </c>
@@ -1427,6 +1466,9 @@
       </c>
       <c r="Q3" s="2">
         <v>43906</v>
+      </c>
+      <c r="R3" s="2">
+        <v>43915</v>
       </c>
       <c r="S3" s="2">
         <v>43915</v>
@@ -1611,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1647,7 +1689,7 @@
         <v>0.25</v>
       </c>
       <c r="AF7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -2730,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2828,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2926,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -3024,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -3122,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -3220,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0.3131868132</v>
+        <v>0.3392857143</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3318,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.3131868132</v>
+        <v>0.3392857143</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3416,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0.3131868132</v>
+        <v>0.3392857143</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3514,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.3131868132</v>
+        <v>0.3392857143</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3612,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0.3131868132</v>
+        <v>0.3392857143</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3710,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0.3131868132</v>
+        <v>0.3392857143</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -3808,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.3131868132</v>
+        <v>0.3392857143</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3906,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.4670329670461539</v>
+        <v>0.5059523809666667</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -4004,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0.4670329670461539</v>
+        <v>0.5059523809666667</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -4033,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4060,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -4102,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="AF33">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -4131,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4158,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -4200,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="AF34">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4229,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4256,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -4298,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="AF35">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4327,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4354,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -4396,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="AF36">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -4425,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4452,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -4494,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="AF37">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4523,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -4550,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -4592,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="AF38">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4621,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -4648,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -4690,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="AF39">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -4719,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -4746,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -4788,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="AF40">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -4817,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4844,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -4886,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="AF41">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -4915,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -4942,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -4984,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="AF42">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -5013,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -5040,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -5082,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="AF43">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -5111,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -5138,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -5180,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="AF44">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -5209,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -5236,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -5278,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="AF45">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -5307,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -5334,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -5376,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="AF46">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -5405,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -5432,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -5474,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="AF47">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -5503,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -5530,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -5572,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="AF48">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="49" spans="1:32">
@@ -5601,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -5628,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -5670,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AF49">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="50" spans="1:32">
@@ -5699,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -5726,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -5768,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="AF50">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="51" spans="1:32">
@@ -5797,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -5824,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -5866,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="AF51">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="52" spans="1:32">
@@ -5895,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -5922,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -5964,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="AF52">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="53" spans="1:32">
@@ -5993,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -6020,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -6062,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AF53">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="54" spans="1:32">
@@ -6091,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -6118,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -6160,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="AF54">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="55" spans="1:32">
@@ -6189,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -6216,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -6258,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="AF55">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="56" spans="1:32">
@@ -6287,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -6314,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -6356,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="AF56">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="57" spans="1:32">
@@ -6385,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -6412,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -6454,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="AF57">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="58" spans="1:32">
@@ -6483,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -6510,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -6552,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="AF58">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="59" spans="1:32">
@@ -6581,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -6608,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -6650,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="AF59">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="60" spans="1:32">
@@ -6679,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -6706,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -6748,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AF60">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="61" spans="1:32">
@@ -6777,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -6804,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -6846,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="AF61">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="62" spans="1:32">
@@ -6875,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -6902,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -6944,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="AF62">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="63" spans="1:32">
@@ -6973,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -7000,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -7042,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="AF63">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="64" spans="1:32">
@@ -7071,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -7098,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -7140,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="AF64">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="65" spans="1:32">
@@ -7169,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -7196,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -7238,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="AF65">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="66" spans="1:32">
@@ -7267,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -7294,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -7336,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="AF66">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="67" spans="1:32">
@@ -7365,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -7392,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -7434,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="AF67">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="68" spans="1:32">
@@ -7463,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -7490,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -7532,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="AF68">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="69" spans="1:32">
@@ -7561,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -7588,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -7630,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="AF69">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="70" spans="1:32">
@@ -7659,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -7686,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -7728,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="AF70">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="71" spans="1:32">
@@ -7757,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -7784,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -7826,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="AF71">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="72" spans="1:32">
@@ -7855,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -7882,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -7924,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="AF72">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="73" spans="1:32">
@@ -7953,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -7980,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -8022,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="AF73">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="74" spans="1:32">
@@ -8051,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -8078,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -8120,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="AF74">
-        <v>0.8159340659461538</v>
+        <v>0.83333333335</v>
       </c>
     </row>
     <row r="75" spans="1:32">
@@ -8149,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -8176,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -8218,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>0.6813186813384615</v>
+        <v>0.6875000000249999</v>
       </c>
     </row>
     <row r="76" spans="1:32">
@@ -8247,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -8274,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -8316,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>0.6813186813384615</v>
+        <v>0.6875000000249999</v>
       </c>
     </row>
     <row r="77" spans="1:32">
@@ -8345,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -8372,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -8414,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>0.6813186813384615</v>
+        <v>0.6875000000249999</v>
       </c>
     </row>
     <row r="78" spans="1:32">
@@ -8443,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -8470,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -8512,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>0.6813186813384615</v>
+        <v>0.6875000000249999</v>
       </c>
     </row>
     <row r="79" spans="1:32">
@@ -8541,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -8568,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -8610,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>0.6813186813384615</v>
+        <v>0.6875000000249999</v>
       </c>
     </row>
     <row r="80" spans="1:32">
@@ -8639,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -8666,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -8708,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>0.6813186813384615</v>
+        <v>0.6875000000249999</v>
       </c>
     </row>
     <row r="81" spans="1:32">
@@ -8737,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -8764,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -8806,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>0.6428571428769231</v>
+        <v>0.6458333333583332</v>
       </c>
     </row>
     <row r="82" spans="1:32">
@@ -8835,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -8862,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -8904,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>0.6236263736461538</v>
+        <v>0.6250000000249999</v>
       </c>
     </row>
     <row r="83" spans="1:32">
@@ -8933,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -8960,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -9002,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>0.6236263736461538</v>
+        <v>0.6250000000249999</v>
       </c>
     </row>
     <row r="84" spans="1:32">
@@ -9031,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -9058,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -9100,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>0.6236263736461538</v>
+        <v>0.6250000000249999</v>
       </c>
     </row>
     <row r="85" spans="1:32">
@@ -9129,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -9156,7 +9198,7 @@
         <v>1</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -9198,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>0.5467032967230769</v>
+        <v>0.6250000000249999</v>
       </c>
     </row>
     <row r="86" spans="1:32">
@@ -9227,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -9254,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -9296,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0.5467032967230769</v>
+        <v>0.6250000000249999</v>
       </c>
     </row>
     <row r="87" spans="1:32">
@@ -9325,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -9352,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -9394,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>0.5467032967230769</v>
+        <v>0.6250000000249999</v>
       </c>
     </row>
     <row r="88" spans="1:32">
@@ -9423,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -9450,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -9492,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>0.5357142857307692</v>
+        <v>0.6130952381166666</v>
       </c>
     </row>
     <row r="89" spans="1:32">
@@ -9521,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -9548,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -9590,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="AF89">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="90" spans="1:32">
@@ -9619,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -9646,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="R90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -9688,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="AF90">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="91" spans="1:32">
@@ -9717,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -9744,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -9786,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="AF91">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="92" spans="1:32">
@@ -9815,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -9842,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -9884,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="93" spans="1:32">
@@ -9913,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -9940,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -9982,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="AF93">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="94" spans="1:32">
@@ -10011,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -10038,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -10080,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="AF94">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="95" spans="1:32">
@@ -10109,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -10136,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -10178,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="96" spans="1:32">
@@ -10207,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -10234,7 +10276,7 @@
         <v>1</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -10276,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="97" spans="1:32">
@@ -10305,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -10332,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -10374,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="98" spans="1:32">
@@ -10403,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -10430,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -10472,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="AF98">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="99" spans="1:32">
@@ -10501,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -10528,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -10570,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="100" spans="1:32">
@@ -10599,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -10626,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -10668,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>0.4972527472692307</v>
+        <v>0.5714285714499999</v>
       </c>
     </row>
     <row r="101" spans="1:32">
@@ -10697,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -10724,7 +10766,7 @@
         <v>1</v>
       </c>
       <c r="R101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -10766,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>0.4203296703461538</v>
+        <v>0.4880952381166667</v>
       </c>
     </row>
     <row r="102" spans="1:32">
@@ -10795,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -10822,7 +10864,7 @@
         <v>1</v>
       </c>
       <c r="R102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -10864,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="AF102">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="103" spans="1:32">
@@ -10893,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -10920,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S103">
         <v>1</v>
@@ -10962,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="AF103">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="104" spans="1:32">
@@ -10991,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -11018,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="R104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -11060,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="AF104">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="105" spans="1:32">
@@ -11089,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -11116,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="R105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -11158,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="AF105">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="106" spans="1:32">
@@ -11187,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -11214,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="R106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -11256,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="107" spans="1:32">
@@ -11285,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -11312,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="R107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -11354,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="108" spans="1:32">
@@ -11383,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -11410,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="R108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -11452,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="109" spans="1:32">
@@ -11481,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -11508,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="R109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S109">
         <v>1</v>
@@ -11550,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="110" spans="1:32">
@@ -11579,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -11606,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="R110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -11648,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="AF110">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="111" spans="1:32">
@@ -11677,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -11704,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="R111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111">
         <v>1</v>
@@ -11746,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="112" spans="1:32">
@@ -11775,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -11802,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="R112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -11844,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="113" spans="1:32">
@@ -11873,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -11900,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="R113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -11942,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="114" spans="1:32">
@@ -11971,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -11998,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -12040,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="AF114">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="115" spans="1:32">
@@ -12069,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -12096,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="R115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -12138,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="AF115">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="116" spans="1:32">
@@ -12167,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -12194,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="R116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -12236,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="AF116">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="117" spans="1:32">
@@ -12265,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -12292,7 +12334,7 @@
         <v>1</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -12334,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="AF117">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="118" spans="1:32">
@@ -12363,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -12390,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="R118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -12432,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="119" spans="1:32">
@@ -12461,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -12488,7 +12530,7 @@
         <v>1</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -12530,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="120" spans="1:32">
@@ -12559,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -12586,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="R120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -12628,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="AF120">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="121" spans="1:32">
@@ -12657,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -12684,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="R121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -12726,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="122" spans="1:32">
@@ -12755,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -12782,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="R122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -12824,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="AF122">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -12853,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -12880,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="R123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -12922,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="124" spans="1:32">
@@ -12951,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -12978,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="R124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -13020,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="AF124">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="125" spans="1:32">
@@ -13049,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -13076,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="R125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -13118,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>0.2637362637461539</v>
+        <v>0.3184523809666667</v>
       </c>
     </row>
     <row r="126" spans="1:32">
@@ -13147,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -13174,7 +13216,7 @@
         <v>1</v>
       </c>
       <c r="R126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -13216,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="AF126">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="127" spans="1:32">
@@ -13245,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -13272,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="R127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -13314,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="128" spans="1:32">
@@ -13343,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -13370,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="R128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -13412,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="AF128">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="129" spans="1:32">
@@ -13441,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -13468,7 +13510,7 @@
         <v>1</v>
       </c>
       <c r="R129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -13510,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="AF129">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="130" spans="1:32">
@@ -13539,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -13566,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="R130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -13608,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="131" spans="1:32">
@@ -13637,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -13664,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="R131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -13706,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="AF131">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="132" spans="1:32">
@@ -13735,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -13762,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="R132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -13804,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="AF132">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="133" spans="1:32">
@@ -13833,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -13860,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="R133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -13902,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="AF133">
-        <v>0.3406593406692308</v>
+        <v>0.4017857143</v>
       </c>
     </row>
     <row r="134" spans="1:32">
@@ -14000,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="AF134">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:32">
@@ -14098,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="AF135">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:32">
@@ -14196,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="AF136">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:32">
@@ -14294,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="AF137">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:32">
@@ -14392,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="AF138">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:32">
@@ -14490,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="AF139">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:32">
@@ -14588,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="AF140">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:32">
@@ -14686,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="AF141">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:32">
@@ -14784,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="AF142">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:32">
@@ -14882,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="AF143">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:32">
@@ -14980,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="AF144">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:32">
@@ -15078,7 +15120,7 @@
         <v>0</v>
       </c>
       <c r="AF145">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:32">
@@ -15176,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="AF146">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:32">
@@ -15274,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="AF147">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:32">
@@ -15372,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="AF148">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:32">
@@ -15470,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="AF149">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:32">
@@ -15568,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="AF150">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:32">
@@ -15666,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="AF151">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:32">
@@ -15764,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="AF152">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:32">
@@ -15862,7 +15904,7 @@
         <v>0</v>
       </c>
       <c r="AF153">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:32">
@@ -15960,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="AF154">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:32">
@@ -16058,7 +16100,7 @@
         <v>0</v>
       </c>
       <c r="AF155">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:32">
@@ -16156,7 +16198,7 @@
         <v>0</v>
       </c>
       <c r="AF156">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:32">
@@ -16254,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="AF157">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:32">
@@ -16352,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="AF158">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:32">
@@ -16450,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="AF159">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:32">
@@ -16548,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="AF160">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:32">
@@ -16646,7 +16688,7 @@
         <v>0</v>
       </c>
       <c r="AF161">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:32">
@@ -16744,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="AF162">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:32">
@@ -16842,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="AF163">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:32">
@@ -16940,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="AF164">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:32">
@@ -17038,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="AF165">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:32">
@@ -17136,7 +17178,7 @@
         <v>0</v>
       </c>
       <c r="AF166">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:32">
@@ -17234,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="AF167">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:32">
@@ -17332,7 +17374,7 @@
         <v>0</v>
       </c>
       <c r="AF168">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:32">
@@ -17430,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="AF169">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:32">
@@ -17528,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="AF170">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:32">
@@ -17626,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="AF171">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:32">
@@ -17724,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="AF172">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:32">
@@ -17822,7 +17864,7 @@
         <v>0</v>
       </c>
       <c r="AF173">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:32">
@@ -17920,7 +17962,7 @@
         <v>0</v>
       </c>
       <c r="AF174">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:32">
@@ -18018,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="AF175">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:32">
@@ -18116,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="AF176">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:32">
@@ -18214,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="AF177">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:32">
@@ -18312,7 +18354,7 @@
         <v>0</v>
       </c>
       <c r="AF178">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:32">
@@ -18410,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="AF179">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:32">
@@ -18508,7 +18550,7 @@
         <v>0</v>
       </c>
       <c r="AF180">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:32">
@@ -18606,7 +18648,7 @@
         <v>0</v>
       </c>
       <c r="AF181">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:32">
@@ -18704,7 +18746,7 @@
         <v>0</v>
       </c>
       <c r="AF182">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:32">
@@ -18802,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="AF183">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:32">
@@ -18900,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="AF184">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:32">
@@ -18998,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="AF185">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:32">
@@ -19096,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="AF186">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:32">
@@ -19194,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="AF187">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:32">
@@ -19292,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="AF188">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:32">
@@ -19390,7 +19432,7 @@
         <v>0</v>
       </c>
       <c r="AF189">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:32">
@@ -19488,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="AF190">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:32">
@@ -19586,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="AF191">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:32">
@@ -19684,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="AF192">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:32">
@@ -19782,7 +19824,7 @@
         <v>0</v>
       </c>
       <c r="AF193">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:32">
@@ -19880,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="AF194">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:32">
@@ -19978,7 +20020,7 @@
         <v>0</v>
       </c>
       <c r="AF195">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:32">
@@ -20076,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="AF196">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:32">
@@ -20174,7 +20216,7 @@
         <v>0</v>
       </c>
       <c r="AF197">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:32">
@@ -20272,7 +20314,7 @@
         <v>0</v>
       </c>
       <c r="AF198">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:32">
@@ -20370,7 +20412,7 @@
         <v>0</v>
       </c>
       <c r="AF199">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:32">
@@ -20468,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="AF200">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:32">
@@ -20566,7 +20608,7 @@
         <v>0</v>
       </c>
       <c r="AF201">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:32">
@@ -20664,7 +20706,7 @@
         <v>0</v>
       </c>
       <c r="AF202">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:32">
@@ -20762,7 +20804,7 @@
         <v>0</v>
       </c>
       <c r="AF203">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:32">
@@ -20860,7 +20902,7 @@
         <v>0</v>
       </c>
       <c r="AF204">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:32">
@@ -20958,7 +21000,7 @@
         <v>0</v>
       </c>
       <c r="AF205">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:32">
@@ -21056,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="AF206">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:32">
@@ -21154,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="AF207">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:32">
@@ -21252,7 +21294,7 @@
         <v>0</v>
       </c>
       <c r="AF208">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:32">
@@ -21350,7 +21392,7 @@
         <v>0</v>
       </c>
       <c r="AF209">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:32">
@@ -21448,7 +21490,7 @@
         <v>0</v>
       </c>
       <c r="AF210">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:32">
@@ -21546,7 +21588,7 @@
         <v>0</v>
       </c>
       <c r="AF211">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:32">
@@ -21644,7 +21686,7 @@
         <v>0</v>
       </c>
       <c r="AF212">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:32">
@@ -21742,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="AF213">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:32">
@@ -21840,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="AF214">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:32">
@@ -21938,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="AF215">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:32">
@@ -22036,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="AF216">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:32">
@@ -22134,7 +22176,7 @@
         <v>0</v>
       </c>
       <c r="AF217">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:32">
@@ -22232,7 +22274,7 @@
         <v>0</v>
       </c>
       <c r="AF218">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:32">
@@ -22330,7 +22372,7 @@
         <v>0</v>
       </c>
       <c r="AF219">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:32">
@@ -22428,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="AF220">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:32">
@@ -22526,7 +22568,1183 @@
         <v>0</v>
       </c>
       <c r="AF221">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:32">
+      <c r="A222" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>1</v>
+      </c>
+      <c r="W222">
+        <v>1</v>
+      </c>
+      <c r="X222">
+        <v>1</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:32">
+      <c r="A223" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+      <c r="W223">
+        <v>1</v>
+      </c>
+      <c r="X223">
+        <v>1</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:32">
+      <c r="A224" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
+      </c>
+      <c r="W224">
+        <v>1</v>
+      </c>
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:32">
+      <c r="A225" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:32">
+      <c r="A226" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
+      <c r="W226">
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:32">
+      <c r="A227" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>1</v>
+      </c>
+      <c r="W227">
+        <v>1</v>
+      </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:32">
+      <c r="A228" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="W228">
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:32">
+      <c r="A229" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+      <c r="W229">
+        <v>1</v>
+      </c>
+      <c r="X229">
+        <v>1</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:32">
+      <c r="A230" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>1</v>
+      </c>
+      <c r="W230">
+        <v>1</v>
+      </c>
+      <c r="X230">
+        <v>1</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:32">
+      <c r="A231" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="W231">
+        <v>1</v>
+      </c>
+      <c r="X231">
+        <v>1</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32">
+      <c r="A232" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>1</v>
+      </c>
+      <c r="W232">
+        <v>1</v>
+      </c>
+      <c r="X232">
+        <v>1</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:32">
+      <c r="A233" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>1</v>
+      </c>
+      <c r="W233">
+        <v>1</v>
+      </c>
+      <c r="X233">
+        <v>1</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -22652,6 +23870,9 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
+      <c r="C9" s="2">
+        <v>43915</v>
+      </c>
       <c r="D9" s="2">
         <v>44015</v>
       </c>
@@ -22774,6 +23995,9 @@
       </c>
       <c r="B18" t="s">
         <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43915</v>
       </c>
       <c r="D18" s="2">
         <v>44015</v>
